--- a/results/validation_gaps/__VALIDATION_ROBUSTNESS_AND_ERRORS/Category/errors_category_timing.xlsx
+++ b/results/validation_gaps/__VALIDATION_ROBUSTNESS_AND_ERRORS/Category/errors_category_timing.xlsx
@@ -481,10 +481,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="n">
@@ -510,10 +510,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="n">
@@ -539,10 +539,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="n">
@@ -568,10 +568,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="n">
@@ -597,10 +597,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="n">
@@ -626,10 +626,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="n">
@@ -655,10 +655,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="n">
@@ -684,10 +684,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="n">
@@ -713,10 +713,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="n">
@@ -742,10 +742,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="n">
@@ -771,10 +771,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="n">
@@ -800,10 +800,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="n">
@@ -829,10 +829,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="n">
@@ -858,10 +858,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="n">
@@ -887,10 +887,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="n">
@@ -916,10 +916,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="n">
@@ -945,10 +945,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="n">
@@ -974,10 +974,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="n">
@@ -1003,10 +1003,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>11</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="n">
@@ -1032,10 +1032,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="n">
@@ -1061,10 +1061,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="n">
@@ -1090,10 +1090,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="n">
@@ -1119,10 +1119,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" t="n">
@@ -1148,10 +1148,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="n">
@@ -1177,10 +1177,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="n">
@@ -1206,10 +1206,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>6</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="n">
@@ -1235,10 +1235,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>5</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="n">
@@ -1264,10 +1264,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="n">
@@ -1293,10 +1293,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="n">
@@ -1322,10 +1322,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="n">
@@ -1351,10 +1351,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="n">
@@ -1380,10 +1380,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="n">
@@ -1409,10 +1409,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>6</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="n">
@@ -1438,10 +1438,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>4</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="n">
@@ -1467,10 +1467,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="n">
@@ -1496,10 +1496,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="n">
@@ -1525,10 +1525,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="n">
@@ -1554,10 +1554,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="n">
@@ -1583,10 +1583,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="n">
@@ -1612,10 +1612,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>14</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="n">
@@ -1641,10 +1641,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="n">
@@ -1670,10 +1670,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="n">
@@ -1699,10 +1699,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="n">
@@ -1728,10 +1728,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="n">
@@ -1757,10 +1757,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="n">
@@ -1786,10 +1786,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="n">
@@ -1815,10 +1815,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="n">
@@ -1844,10 +1844,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>15</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="n">
@@ -1873,10 +1873,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>14</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="n">
@@ -1902,10 +1902,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>16</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="n">
@@ -1931,10 +1931,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>22</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="n">
@@ -1960,10 +1960,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>13</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="n">
@@ -1989,10 +1989,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="n">
@@ -2018,10 +2018,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="n">
@@ -2047,10 +2047,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" t="n">
@@ -2076,10 +2076,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="n">
@@ -2105,10 +2105,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" t="n">
@@ -2134,10 +2134,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="n">
@@ -2163,10 +2163,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="n">
@@ -2192,10 +2192,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>21</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="n">
@@ -2221,10 +2221,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>8</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" t="n">
@@ -2250,10 +2250,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>19</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="n">
@@ -2279,10 +2279,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>16</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="n">
@@ -2308,10 +2308,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>10</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65" t="n">
@@ -2337,10 +2337,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>3</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="n">
@@ -2366,10 +2366,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>3</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="n">
@@ -2395,10 +2395,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>5</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="n">
@@ -2424,10 +2424,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>10</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="n">
@@ -2453,10 +2453,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="n">
@@ -2482,10 +2482,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="n">
@@ -2511,10 +2511,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>7</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="n">
@@ -2540,10 +2540,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>9</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="n">
@@ -2569,10 +2569,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>26</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="E74" t="n">
@@ -2598,10 +2598,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>14</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="n">
@@ -2627,10 +2627,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>4</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="E76" t="n">
@@ -2656,10 +2656,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>9</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="n">
@@ -2685,10 +2685,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>9</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="n">
@@ -2714,10 +2714,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>8</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="n">
@@ -2743,10 +2743,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="n">
@@ -2772,10 +2772,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>3</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="n">
@@ -2801,10 +2801,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="n">
@@ -2830,10 +2830,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>8</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="n">
@@ -2859,10 +2859,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="n">
@@ -2888,10 +2888,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="n">
@@ -2917,10 +2917,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>3</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="n">
@@ -2946,10 +2946,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>2</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" t="b">
         <v>1</v>
       </c>
       <c r="E87" t="n">
@@ -2975,10 +2975,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="n">
@@ -3004,10 +3004,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>2</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="n">
@@ -3033,10 +3033,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>4</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
         <v>1</v>
       </c>
       <c r="E90" t="n">
@@ -3062,10 +3062,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="n">
@@ -3091,10 +3091,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>5</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="n">
@@ -3120,10 +3120,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>9</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="n">
@@ -3149,10 +3149,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="n">
@@ -3178,10 +3178,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>4</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="n">
@@ -3207,10 +3207,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>3</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="n">
@@ -3236,10 +3236,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>3</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="n">
@@ -3265,10 +3265,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>4</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="n">
@@ -3294,10 +3294,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>4</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="n">
@@ -3323,10 +3323,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>3</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="n">
@@ -3352,10 +3352,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>5</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="n">
@@ -3381,10 +3381,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="n">
@@ -3410,10 +3410,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103" t="n">
@@ -3439,10 +3439,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>22</v>
-      </c>
-      <c r="D104" t="n">
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
         <v>1</v>
       </c>
       <c r="E104" t="n">
@@ -3468,10 +3468,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>14</v>
-      </c>
-      <c r="D105" t="n">
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="n">
@@ -3497,10 +3497,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>15</v>
-      </c>
-      <c r="D106" t="n">
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="b">
         <v>1</v>
       </c>
       <c r="E106" t="n">
@@ -3526,10 +3526,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>8</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="n">
@@ -3555,10 +3555,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>2</v>
-      </c>
-      <c r="D108" t="n">
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="n">
@@ -3584,10 +3584,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>16</v>
-      </c>
-      <c r="D109" t="n">
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="n">
@@ -3613,10 +3613,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="n">
@@ -3642,10 +3642,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>10</v>
-      </c>
-      <c r="D111" t="n">
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="n">
@@ -3671,10 +3671,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>5</v>
-      </c>
-      <c r="D112" t="n">
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" t="n">
@@ -3700,10 +3700,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>4</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
         <v>1</v>
       </c>
       <c r="E113" t="n">
@@ -3729,10 +3729,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="n">
@@ -3758,10 +3758,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>11</v>
-      </c>
-      <c r="D115" t="n">
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="n">
@@ -3787,10 +3787,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>3</v>
-      </c>
-      <c r="D116" t="n">
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" t="b">
         <v>1</v>
       </c>
       <c r="E116" t="n">
@@ -3816,10 +3816,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>2</v>
-      </c>
-      <c r="D117" t="n">
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="n">
@@ -3845,10 +3845,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>8</v>
-      </c>
-      <c r="D118" t="n">
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" t="b">
         <v>1</v>
       </c>
       <c r="E118" t="n">
@@ -3874,10 +3874,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>8</v>
-      </c>
-      <c r="D119" t="n">
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="n">
@@ -3903,10 +3903,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>2</v>
-      </c>
-      <c r="D120" t="n">
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="n">
@@ -3932,10 +3932,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>6</v>
-      </c>
-      <c r="D121" t="n">
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="n">
@@ -3961,10 +3961,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="n">
@@ -3990,10 +3990,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>11</v>
-      </c>
-      <c r="D123" t="n">
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="n">
@@ -4019,10 +4019,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>2</v>
-      </c>
-      <c r="D124" t="n">
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="n">
@@ -4048,10 +4048,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="n">
@@ -4077,10 +4077,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>8</v>
-      </c>
-      <c r="D126" t="n">
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" t="b">
         <v>1</v>
       </c>
       <c r="E126" t="n">
@@ -4106,10 +4106,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>3</v>
-      </c>
-      <c r="D127" t="n">
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="n">
@@ -4135,10 +4135,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>2</v>
-      </c>
-      <c r="D128" t="n">
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="n">
@@ -4164,10 +4164,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>4</v>
-      </c>
-      <c r="D129" t="n">
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="n">
@@ -4193,10 +4193,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>17</v>
-      </c>
-      <c r="D130" t="n">
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="n">
@@ -4222,10 +4222,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="n">
@@ -4251,10 +4251,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>21</v>
-      </c>
-      <c r="D132" t="n">
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="n">
@@ -4280,10 +4280,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" t="n">
@@ -4309,10 +4309,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>7</v>
-      </c>
-      <c r="D134" t="n">
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+      <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="n">
@@ -4338,10 +4338,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>5</v>
-      </c>
-      <c r="D135" t="n">
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" t="b">
         <v>1</v>
       </c>
       <c r="E135" t="n">
@@ -4367,10 +4367,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>3</v>
-      </c>
-      <c r="D136" t="n">
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="n">
@@ -4396,10 +4396,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>3</v>
-      </c>
-      <c r="D137" t="n">
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="n">
@@ -4425,10 +4425,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="n">
@@ -4454,10 +4454,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="n">
@@ -4483,10 +4483,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="n">
@@ -4512,10 +4512,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="n">
@@ -4541,10 +4541,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>5</v>
-      </c>
-      <c r="D142" t="n">
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" t="b">
         <v>1</v>
       </c>
       <c r="E142" t="n">
@@ -4570,10 +4570,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>3</v>
-      </c>
-      <c r="D143" t="n">
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="n">
@@ -4599,10 +4599,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>5</v>
-      </c>
-      <c r="D144" t="n">
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="n">
@@ -4628,10 +4628,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>8</v>
-      </c>
-      <c r="D145" t="n">
+      <c r="C145" t="b">
+        <v>1</v>
+      </c>
+      <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="n">
@@ -4657,10 +4657,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>7</v>
-      </c>
-      <c r="D146" t="n">
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146" t="b">
         <v>1</v>
       </c>
       <c r="E146" t="n">
@@ -4686,10 +4686,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>5</v>
-      </c>
-      <c r="D147" t="n">
+      <c r="C147" t="b">
+        <v>1</v>
+      </c>
+      <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="n">
@@ -4715,10 +4715,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>6</v>
-      </c>
-      <c r="D148" t="n">
+      <c r="C148" t="b">
+        <v>1</v>
+      </c>
+      <c r="D148" t="b">
         <v>1</v>
       </c>
       <c r="E148" t="n">
@@ -4744,10 +4744,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>2</v>
-      </c>
-      <c r="D149" t="n">
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="n">
@@ -4773,10 +4773,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>2</v>
-      </c>
-      <c r="D150" t="n">
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
+      <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="n">
@@ -4802,10 +4802,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="n">
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="n">
@@ -4831,10 +4831,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>16</v>
-      </c>
-      <c r="D152" t="n">
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
+      <c r="D152" t="b">
         <v>1</v>
       </c>
       <c r="E152" t="n">
@@ -4860,10 +4860,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" t="n">
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+      <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="n">
@@ -4889,10 +4889,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="n">
@@ -4918,10 +4918,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" t="n">
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+      <c r="D155" t="b">
         <v>1</v>
       </c>
       <c r="E155" t="n">
@@ -4947,10 +4947,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>26</v>
-      </c>
-      <c r="D156" t="n">
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="n">
@@ -4976,10 +4976,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="n">
@@ -5005,10 +5005,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>17</v>
-      </c>
-      <c r="D158" t="n">
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="n">
@@ -5034,10 +5034,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>9</v>
-      </c>
-      <c r="D159" t="n">
+      <c r="C159" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="n">
@@ -5063,10 +5063,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>7</v>
-      </c>
-      <c r="D160" t="n">
+      <c r="C160" t="b">
+        <v>1</v>
+      </c>
+      <c r="D160" t="b">
         <v>1</v>
       </c>
       <c r="E160" t="n">
@@ -5092,10 +5092,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="n">
+      <c r="C161" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="n">
@@ -5121,10 +5121,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>19</v>
-      </c>
-      <c r="D162" t="n">
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" t="b">
         <v>1</v>
       </c>
       <c r="E162" t="n">
@@ -5150,10 +5150,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>14</v>
-      </c>
-      <c r="D163" t="n">
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+      <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="n">
@@ -5179,10 +5179,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>6</v>
-      </c>
-      <c r="D164" t="n">
+      <c r="C164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="n">
@@ -5208,10 +5208,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>5</v>
-      </c>
-      <c r="D165" t="n">
+      <c r="C165" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="n">
@@ -5237,10 +5237,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
+      <c r="C166" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166" t="b">
         <v>0</v>
       </c>
       <c r="E166" t="n">
@@ -5266,10 +5266,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
-      <c r="D167" t="n">
+      <c r="C167" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="n">
@@ -5295,10 +5295,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>6</v>
-      </c>
-      <c r="D168" t="n">
+      <c r="C168" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="n">
@@ -5324,10 +5324,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>7</v>
-      </c>
-      <c r="D169" t="n">
+      <c r="C169" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" t="b">
         <v>0</v>
       </c>
       <c r="E169" t="n">
@@ -5353,10 +5353,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>39</v>
-      </c>
-      <c r="D170" t="n">
+      <c r="C170" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170" t="b">
         <v>1</v>
       </c>
       <c r="E170" t="n">
@@ -5382,10 +5382,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>17</v>
-      </c>
-      <c r="D171" t="n">
+      <c r="C171" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="n">
@@ -5411,10 +5411,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>20</v>
-      </c>
-      <c r="D172" t="n">
+      <c r="C172" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="n">
@@ -5440,10 +5440,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C173" t="n">
-        <v>25</v>
-      </c>
-      <c r="D173" t="n">
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="n">
@@ -5469,10 +5469,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>22</v>
-      </c>
-      <c r="D174" t="n">
+      <c r="C174" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174" t="b">
         <v>1</v>
       </c>
       <c r="E174" t="n">
@@ -5498,10 +5498,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="n">
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="n">
@@ -5527,10 +5527,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v>2</v>
-      </c>
-      <c r="D176" t="n">
+      <c r="C176" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="n">
@@ -5556,10 +5556,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>1</v>
-      </c>
-      <c r="D177" t="n">
+      <c r="C177" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177" t="n">
@@ -5585,10 +5585,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>8</v>
-      </c>
-      <c r="D178" t="n">
+      <c r="C178" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" t="b">
         <v>1</v>
       </c>
       <c r="E178" t="n">
@@ -5614,10 +5614,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>15</v>
-      </c>
-      <c r="D179" t="n">
+      <c r="C179" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179" t="b">
         <v>0</v>
       </c>
       <c r="E179" t="n">
@@ -5643,10 +5643,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>8</v>
-      </c>
-      <c r="D180" t="n">
+      <c r="C180" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180" t="b">
         <v>1</v>
       </c>
       <c r="E180" t="n">
@@ -5672,10 +5672,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>7</v>
-      </c>
-      <c r="D181" t="n">
+      <c r="C181" t="b">
+        <v>1</v>
+      </c>
+      <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="n">
@@ -5701,10 +5701,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>10</v>
-      </c>
-      <c r="D182" t="n">
+      <c r="C182" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182" t="n">
@@ -5730,10 +5730,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>20</v>
-      </c>
-      <c r="D183" t="n">
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="n">
@@ -5759,10 +5759,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>9</v>
-      </c>
-      <c r="D184" t="n">
+      <c r="C184" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="n">
@@ -5788,10 +5788,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
+      <c r="C185" t="b">
+        <v>0</v>
+      </c>
+      <c r="D185" t="b">
         <v>0</v>
       </c>
       <c r="E185" t="n">
@@ -5817,10 +5817,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>4</v>
-      </c>
-      <c r="D186" t="n">
+      <c r="C186" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186" t="n">
@@ -5846,10 +5846,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>8</v>
-      </c>
-      <c r="D187" t="n">
+      <c r="C187" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187" t="n">
@@ -5875,10 +5875,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>1</v>
-      </c>
-      <c r="D188" t="n">
+      <c r="C188" t="b">
+        <v>1</v>
+      </c>
+      <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188" t="n">
@@ -5904,10 +5904,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C189" t="n">
-        <v>2</v>
-      </c>
-      <c r="D189" t="n">
+      <c r="C189" t="b">
+        <v>1</v>
+      </c>
+      <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189" t="n">
@@ -5933,10 +5933,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>5</v>
-      </c>
-      <c r="D190" t="n">
+      <c r="C190" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="n">
@@ -5962,10 +5962,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>2</v>
-      </c>
-      <c r="D191" t="n">
+      <c r="C191" t="b">
+        <v>1</v>
+      </c>
+      <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="n">
@@ -5991,10 +5991,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>6</v>
-      </c>
-      <c r="D192" t="n">
+      <c r="C192" t="b">
+        <v>1</v>
+      </c>
+      <c r="D192" t="b">
         <v>1</v>
       </c>
       <c r="E192" t="n">
@@ -6020,10 +6020,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>5</v>
-      </c>
-      <c r="D193" t="n">
+      <c r="C193" t="b">
+        <v>1</v>
+      </c>
+      <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="n">
@@ -6049,10 +6049,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>6</v>
-      </c>
-      <c r="D194" t="n">
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" t="b">
         <v>1</v>
       </c>
       <c r="E194" t="n">
@@ -6078,10 +6078,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>4</v>
-      </c>
-      <c r="D195" t="n">
+      <c r="C195" t="b">
+        <v>1</v>
+      </c>
+      <c r="D195" t="b">
         <v>0</v>
       </c>
       <c r="E195" t="n">
@@ -6107,10 +6107,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v>17</v>
-      </c>
-      <c r="D196" t="n">
+      <c r="C196" t="b">
+        <v>1</v>
+      </c>
+      <c r="D196" t="b">
         <v>0</v>
       </c>
       <c r="E196" t="n">
@@ -6136,10 +6136,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v>8</v>
-      </c>
-      <c r="D197" t="n">
+      <c r="C197" t="b">
+        <v>1</v>
+      </c>
+      <c r="D197" t="b">
         <v>0</v>
       </c>
       <c r="E197" t="n">
@@ -6165,10 +6165,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" t="n">
+      <c r="C198" t="b">
+        <v>0</v>
+      </c>
+      <c r="D198" t="b">
         <v>0</v>
       </c>
       <c r="E198" t="n">
@@ -6194,10 +6194,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" t="n">
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199" t="b">
         <v>0</v>
       </c>
       <c r="E199" t="n">
@@ -6223,10 +6223,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C200" t="n">
-        <v>11</v>
-      </c>
-      <c r="D200" t="n">
+      <c r="C200" t="b">
+        <v>1</v>
+      </c>
+      <c r="D200" t="b">
         <v>0</v>
       </c>
       <c r="E200" t="n">
@@ -6252,10 +6252,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>7</v>
-      </c>
-      <c r="D201" t="n">
+      <c r="C201" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201" t="b">
         <v>0</v>
       </c>
       <c r="E201" t="n">
@@ -6281,10 +6281,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>3</v>
-      </c>
-      <c r="D202" t="n">
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" t="b">
         <v>1</v>
       </c>
       <c r="E202" t="n">
@@ -6310,10 +6310,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v>16</v>
-      </c>
-      <c r="D203" t="n">
+      <c r="C203" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" t="b">
         <v>0</v>
       </c>
       <c r="E203" t="n">
@@ -6339,10 +6339,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C204" t="n">
-        <v>1</v>
-      </c>
-      <c r="D204" t="n">
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204" t="n">
@@ -6368,10 +6368,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" t="n">
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205" t="n">
@@ -6397,10 +6397,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C206" t="n">
-        <v>13</v>
-      </c>
-      <c r="D206" t="n">
+      <c r="C206" t="b">
+        <v>1</v>
+      </c>
+      <c r="D206" t="b">
         <v>1</v>
       </c>
       <c r="E206" t="n">
@@ -6426,10 +6426,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" t="n">
+      <c r="C207" t="b">
+        <v>0</v>
+      </c>
+      <c r="D207" t="b">
         <v>0</v>
       </c>
       <c r="E207" t="n">
@@ -6455,10 +6455,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C208" t="n">
-        <v>18</v>
-      </c>
-      <c r="D208" t="n">
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" t="b">
         <v>0</v>
       </c>
       <c r="E208" t="n">
@@ -6484,10 +6484,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
+      <c r="C209" t="b">
+        <v>0</v>
+      </c>
+      <c r="D209" t="b">
         <v>0</v>
       </c>
       <c r="E209" t="n">
@@ -6513,10 +6513,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>3</v>
-      </c>
-      <c r="D210" t="n">
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" t="b">
         <v>0</v>
       </c>
       <c r="E210" t="n">
@@ -6542,10 +6542,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C211" t="n">
-        <v>5</v>
-      </c>
-      <c r="D211" t="n">
+      <c r="C211" t="b">
+        <v>1</v>
+      </c>
+      <c r="D211" t="b">
         <v>0</v>
       </c>
       <c r="E211" t="n">
@@ -6571,10 +6571,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C212" t="n">
-        <v>15</v>
-      </c>
-      <c r="D212" t="n">
+      <c r="C212" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" t="b">
         <v>1</v>
       </c>
       <c r="E212" t="n">
@@ -6600,10 +6600,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C213" t="n">
-        <v>11</v>
-      </c>
-      <c r="D213" t="n">
+      <c r="C213" t="b">
+        <v>1</v>
+      </c>
+      <c r="D213" t="b">
         <v>1</v>
       </c>
       <c r="E213" t="n">
@@ -6629,10 +6629,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="b">
         <v>0</v>
       </c>
       <c r="E214" t="n">
@@ -6658,10 +6658,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C215" t="n">
-        <v>0</v>
-      </c>
-      <c r="D215" t="n">
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
+      <c r="D215" t="b">
         <v>0</v>
       </c>
       <c r="E215" t="n">
@@ -6687,10 +6687,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C216" t="n">
-        <v>3</v>
-      </c>
-      <c r="D216" t="n">
+      <c r="C216" t="b">
+        <v>1</v>
+      </c>
+      <c r="D216" t="b">
         <v>1</v>
       </c>
       <c r="E216" t="n">
@@ -6716,10 +6716,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>7</v>
-      </c>
-      <c r="D217" t="n">
+      <c r="C217" t="b">
+        <v>1</v>
+      </c>
+      <c r="D217" t="b">
         <v>0</v>
       </c>
       <c r="E217" t="n">
@@ -6745,10 +6745,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C218" t="n">
-        <v>14</v>
-      </c>
-      <c r="D218" t="n">
+      <c r="C218" t="b">
+        <v>1</v>
+      </c>
+      <c r="D218" t="b">
         <v>0</v>
       </c>
       <c r="E218" t="n">
@@ -6774,10 +6774,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C219" t="n">
-        <v>9</v>
-      </c>
-      <c r="D219" t="n">
+      <c r="C219" t="b">
+        <v>1</v>
+      </c>
+      <c r="D219" t="b">
         <v>1</v>
       </c>
       <c r="E219" t="n">
@@ -6803,10 +6803,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C220" t="n">
-        <v>6</v>
-      </c>
-      <c r="D220" t="n">
+      <c r="C220" t="b">
+        <v>1</v>
+      </c>
+      <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220" t="n">
@@ -6832,10 +6832,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v>1</v>
-      </c>
-      <c r="D221" t="n">
+      <c r="C221" t="b">
+        <v>1</v>
+      </c>
+      <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221" t="n">
@@ -6861,10 +6861,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C222" t="n">
-        <v>12</v>
-      </c>
-      <c r="D222" t="n">
+      <c r="C222" t="b">
+        <v>1</v>
+      </c>
+      <c r="D222" t="b">
         <v>1</v>
       </c>
       <c r="E222" t="n">
@@ -6890,10 +6890,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v>11</v>
-      </c>
-      <c r="D223" t="n">
+      <c r="C223" t="b">
+        <v>1</v>
+      </c>
+      <c r="D223" t="b">
         <v>0</v>
       </c>
       <c r="E223" t="n">
@@ -6919,10 +6919,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C224" t="n">
-        <v>3</v>
-      </c>
-      <c r="D224" t="n">
+      <c r="C224" t="b">
+        <v>1</v>
+      </c>
+      <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224" t="n">
@@ -6948,10 +6948,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C225" t="n">
-        <v>0</v>
-      </c>
-      <c r="D225" t="n">
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" t="b">
         <v>0</v>
       </c>
       <c r="E225" t="n">
@@ -6977,10 +6977,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C226" t="n">
-        <v>20</v>
-      </c>
-      <c r="D226" t="n">
+      <c r="C226" t="b">
+        <v>1</v>
+      </c>
+      <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226" t="n">
@@ -7006,10 +7006,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C227" t="n">
-        <v>8</v>
-      </c>
-      <c r="D227" t="n">
+      <c r="C227" t="b">
+        <v>1</v>
+      </c>
+      <c r="D227" t="b">
         <v>0</v>
       </c>
       <c r="E227" t="n">
@@ -7035,10 +7035,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v>5</v>
-      </c>
-      <c r="D228" t="n">
+      <c r="C228" t="b">
+        <v>1</v>
+      </c>
+      <c r="D228" t="b">
         <v>0</v>
       </c>
       <c r="E228" t="n">
@@ -7064,10 +7064,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C229" t="n">
-        <v>6</v>
-      </c>
-      <c r="D229" t="n">
+      <c r="C229" t="b">
+        <v>1</v>
+      </c>
+      <c r="D229" t="b">
         <v>0</v>
       </c>
       <c r="E229" t="n">
@@ -7093,10 +7093,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C230" t="n">
-        <v>2</v>
-      </c>
-      <c r="D230" t="n">
+      <c r="C230" t="b">
+        <v>1</v>
+      </c>
+      <c r="D230" t="b">
         <v>0</v>
       </c>
       <c r="E230" t="n">
@@ -7122,10 +7122,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C231" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" t="n">
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+      <c r="D231" t="b">
         <v>0</v>
       </c>
       <c r="E231" t="n">
@@ -7151,10 +7151,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C232" t="n">
-        <v>7</v>
-      </c>
-      <c r="D232" t="n">
+      <c r="C232" t="b">
+        <v>1</v>
+      </c>
+      <c r="D232" t="b">
         <v>0</v>
       </c>
       <c r="E232" t="n">
@@ -7180,10 +7180,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C233" t="n">
-        <v>24</v>
-      </c>
-      <c r="D233" t="n">
+      <c r="C233" t="b">
+        <v>1</v>
+      </c>
+      <c r="D233" t="b">
         <v>0</v>
       </c>
       <c r="E233" t="n">
@@ -7209,10 +7209,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C234" t="n">
-        <v>4</v>
-      </c>
-      <c r="D234" t="n">
+      <c r="C234" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234" t="b">
         <v>0</v>
       </c>
       <c r="E234" t="n">
@@ -7238,10 +7238,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C235" t="n">
-        <v>5</v>
-      </c>
-      <c r="D235" t="n">
+      <c r="C235" t="b">
+        <v>1</v>
+      </c>
+      <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235" t="n">
@@ -7267,10 +7267,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C236" t="n">
-        <v>7</v>
-      </c>
-      <c r="D236" t="n">
+      <c r="C236" t="b">
+        <v>1</v>
+      </c>
+      <c r="D236" t="b">
         <v>1</v>
       </c>
       <c r="E236" t="n">
@@ -7296,10 +7296,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C237" t="n">
-        <v>10</v>
-      </c>
-      <c r="D237" t="n">
+      <c r="C237" t="b">
+        <v>1</v>
+      </c>
+      <c r="D237" t="b">
         <v>0</v>
       </c>
       <c r="E237" t="n">
@@ -7325,10 +7325,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C238" t="n">
-        <v>5</v>
-      </c>
-      <c r="D238" t="n">
+      <c r="C238" t="b">
+        <v>1</v>
+      </c>
+      <c r="D238" t="b">
         <v>0</v>
       </c>
       <c r="E238" t="n">
@@ -7354,10 +7354,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C239" t="n">
-        <v>6</v>
-      </c>
-      <c r="D239" t="n">
+      <c r="C239" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" t="b">
         <v>0</v>
       </c>
       <c r="E239" t="n">
@@ -7383,10 +7383,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C240" t="n">
-        <v>12</v>
-      </c>
-      <c r="D240" t="n">
+      <c r="C240" t="b">
+        <v>1</v>
+      </c>
+      <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240" t="n">
@@ -7412,10 +7412,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C241" t="n">
-        <v>10</v>
-      </c>
-      <c r="D241" t="n">
+      <c r="C241" t="b">
+        <v>1</v>
+      </c>
+      <c r="D241" t="b">
         <v>1</v>
       </c>
       <c r="E241" t="n">
@@ -7441,10 +7441,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C242" t="n">
-        <v>6</v>
-      </c>
-      <c r="D242" t="n">
+      <c r="C242" t="b">
+        <v>1</v>
+      </c>
+      <c r="D242" t="b">
         <v>0</v>
       </c>
       <c r="E242" t="n">
@@ -7470,10 +7470,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C243" t="n">
-        <v>4</v>
-      </c>
-      <c r="D243" t="n">
+      <c r="C243" t="b">
+        <v>1</v>
+      </c>
+      <c r="D243" t="b">
         <v>1</v>
       </c>
       <c r="E243" t="n">
@@ -7499,10 +7499,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C244" t="n">
-        <v>11</v>
-      </c>
-      <c r="D244" t="n">
+      <c r="C244" t="b">
+        <v>1</v>
+      </c>
+      <c r="D244" t="b">
         <v>1</v>
       </c>
       <c r="E244" t="n">
@@ -7528,10 +7528,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C245" t="n">
-        <v>6</v>
-      </c>
-      <c r="D245" t="n">
+      <c r="C245" t="b">
+        <v>1</v>
+      </c>
+      <c r="D245" t="b">
         <v>0</v>
       </c>
       <c r="E245" t="n">
@@ -7557,10 +7557,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C246" t="n">
-        <v>4</v>
-      </c>
-      <c r="D246" t="n">
+      <c r="C246" t="b">
+        <v>1</v>
+      </c>
+      <c r="D246" t="b">
         <v>0</v>
       </c>
       <c r="E246" t="n">
@@ -7586,10 +7586,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C247" t="n">
-        <v>0</v>
-      </c>
-      <c r="D247" t="n">
+      <c r="C247" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" t="b">
         <v>0</v>
       </c>
       <c r="E247" t="n">
@@ -7615,10 +7615,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C248" t="n">
-        <v>16</v>
-      </c>
-      <c r="D248" t="n">
+      <c r="C248" t="b">
+        <v>1</v>
+      </c>
+      <c r="D248" t="b">
         <v>0</v>
       </c>
       <c r="E248" t="n">
@@ -7644,10 +7644,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C249" t="n">
-        <v>15</v>
-      </c>
-      <c r="D249" t="n">
+      <c r="C249" t="b">
+        <v>1</v>
+      </c>
+      <c r="D249" t="b">
         <v>0</v>
       </c>
       <c r="E249" t="n">
@@ -7673,10 +7673,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C250" t="n">
-        <v>12</v>
-      </c>
-      <c r="D250" t="n">
+      <c r="C250" t="b">
+        <v>1</v>
+      </c>
+      <c r="D250" t="b">
         <v>0</v>
       </c>
       <c r="E250" t="n">
@@ -7702,10 +7702,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C251" t="n">
-        <v>7</v>
-      </c>
-      <c r="D251" t="n">
+      <c r="C251" t="b">
+        <v>1</v>
+      </c>
+      <c r="D251" t="b">
         <v>1</v>
       </c>
       <c r="E251" t="n">
@@ -7731,10 +7731,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C252" t="n">
-        <v>0</v>
-      </c>
-      <c r="D252" t="n">
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252" t="b">
         <v>0</v>
       </c>
       <c r="E252" t="n">
@@ -7760,10 +7760,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C253" t="n">
-        <v>11</v>
-      </c>
-      <c r="D253" t="n">
+      <c r="C253" t="b">
+        <v>1</v>
+      </c>
+      <c r="D253" t="b">
         <v>0</v>
       </c>
       <c r="E253" t="n">
@@ -7789,10 +7789,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C254" t="n">
-        <v>18</v>
-      </c>
-      <c r="D254" t="n">
+      <c r="C254" t="b">
+        <v>1</v>
+      </c>
+      <c r="D254" t="b">
         <v>0</v>
       </c>
       <c r="E254" t="n">
@@ -7818,10 +7818,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C255" t="n">
-        <v>4</v>
-      </c>
-      <c r="D255" t="n">
+      <c r="C255" t="b">
+        <v>1</v>
+      </c>
+      <c r="D255" t="b">
         <v>0</v>
       </c>
       <c r="E255" t="n">
@@ -7847,10 +7847,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C256" t="n">
-        <v>3</v>
-      </c>
-      <c r="D256" t="n">
+      <c r="C256" t="b">
+        <v>1</v>
+      </c>
+      <c r="D256" t="b">
         <v>0</v>
       </c>
       <c r="E256" t="n">
@@ -7876,10 +7876,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C257" t="n">
-        <v>3</v>
-      </c>
-      <c r="D257" t="n">
+      <c r="C257" t="b">
+        <v>1</v>
+      </c>
+      <c r="D257" t="b">
         <v>0</v>
       </c>
       <c r="E257" t="n">
@@ -7905,10 +7905,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C258" t="n">
-        <v>1</v>
-      </c>
-      <c r="D258" t="n">
+      <c r="C258" t="b">
+        <v>1</v>
+      </c>
+      <c r="D258" t="b">
         <v>0</v>
       </c>
       <c r="E258" t="n">
@@ -7934,10 +7934,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C259" t="n">
-        <v>0</v>
-      </c>
-      <c r="D259" t="n">
+      <c r="C259" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" t="b">
         <v>0</v>
       </c>
       <c r="E259" t="n">
@@ -7963,10 +7963,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C260" t="n">
-        <v>20</v>
-      </c>
-      <c r="D260" t="n">
+      <c r="C260" t="b">
+        <v>1</v>
+      </c>
+      <c r="D260" t="b">
         <v>0</v>
       </c>
       <c r="E260" t="n">
@@ -7992,10 +7992,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C261" t="n">
-        <v>21</v>
-      </c>
-      <c r="D261" t="n">
+      <c r="C261" t="b">
+        <v>1</v>
+      </c>
+      <c r="D261" t="b">
         <v>0</v>
       </c>
       <c r="E261" t="n">
@@ -8021,10 +8021,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C262" t="n">
-        <v>7</v>
-      </c>
-      <c r="D262" t="n">
+      <c r="C262" t="b">
+        <v>1</v>
+      </c>
+      <c r="D262" t="b">
         <v>1</v>
       </c>
       <c r="E262" t="n">
@@ -8050,10 +8050,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C263" t="n">
-        <v>9</v>
-      </c>
-      <c r="D263" t="n">
+      <c r="C263" t="b">
+        <v>1</v>
+      </c>
+      <c r="D263" t="b">
         <v>0</v>
       </c>
       <c r="E263" t="n">
@@ -8079,10 +8079,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C264" t="n">
-        <v>3</v>
-      </c>
-      <c r="D264" t="n">
+      <c r="C264" t="b">
+        <v>1</v>
+      </c>
+      <c r="D264" t="b">
         <v>1</v>
       </c>
       <c r="E264" t="n">
@@ -8108,10 +8108,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C265" t="n">
-        <v>3</v>
-      </c>
-      <c r="D265" t="n">
+      <c r="C265" t="b">
+        <v>1</v>
+      </c>
+      <c r="D265" t="b">
         <v>0</v>
       </c>
       <c r="E265" t="n">
@@ -8137,10 +8137,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C266" t="n">
-        <v>8</v>
-      </c>
-      <c r="D266" t="n">
+      <c r="C266" t="b">
+        <v>1</v>
+      </c>
+      <c r="D266" t="b">
         <v>1</v>
       </c>
       <c r="E266" t="n">
@@ -8166,10 +8166,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C267" t="n">
-        <v>0</v>
-      </c>
-      <c r="D267" t="n">
+      <c r="C267" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" t="b">
         <v>0</v>
       </c>
       <c r="E267" t="n">
@@ -8195,10 +8195,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C268" t="n">
-        <v>5</v>
-      </c>
-      <c r="D268" t="n">
+      <c r="C268" t="b">
+        <v>1</v>
+      </c>
+      <c r="D268" t="b">
         <v>0</v>
       </c>
       <c r="E268" t="n">
@@ -8224,10 +8224,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C269" t="n">
-        <v>4</v>
-      </c>
-      <c r="D269" t="n">
+      <c r="C269" t="b">
+        <v>1</v>
+      </c>
+      <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269" t="n">
@@ -8253,10 +8253,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C270" t="n">
-        <v>1</v>
-      </c>
-      <c r="D270" t="n">
+      <c r="C270" t="b">
+        <v>1</v>
+      </c>
+      <c r="D270" t="b">
         <v>0</v>
       </c>
       <c r="E270" t="n">
@@ -8282,10 +8282,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C271" t="n">
-        <v>2</v>
-      </c>
-      <c r="D271" t="n">
+      <c r="C271" t="b">
+        <v>1</v>
+      </c>
+      <c r="D271" t="b">
         <v>0</v>
       </c>
       <c r="E271" t="n">
@@ -8311,10 +8311,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C272" t="n">
-        <v>0</v>
-      </c>
-      <c r="D272" t="n">
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" t="b">
         <v>0</v>
       </c>
       <c r="E272" t="n">
@@ -8340,10 +8340,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C273" t="n">
-        <v>0</v>
-      </c>
-      <c r="D273" t="n">
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" t="b">
         <v>0</v>
       </c>
       <c r="E273" t="n">
@@ -8369,10 +8369,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C274" t="n">
-        <v>19</v>
-      </c>
-      <c r="D274" t="n">
+      <c r="C274" t="b">
+        <v>1</v>
+      </c>
+      <c r="D274" t="b">
         <v>1</v>
       </c>
       <c r="E274" t="n">
@@ -8398,10 +8398,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C275" t="n">
-        <v>23</v>
-      </c>
-      <c r="D275" t="n">
+      <c r="C275" t="b">
+        <v>1</v>
+      </c>
+      <c r="D275" t="b">
         <v>0</v>
       </c>
       <c r="E275" t="n">
@@ -8427,10 +8427,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C276" t="n">
-        <v>7</v>
-      </c>
-      <c r="D276" t="n">
+      <c r="C276" t="b">
+        <v>1</v>
+      </c>
+      <c r="D276" t="b">
         <v>0</v>
       </c>
       <c r="E276" t="n">
@@ -8456,10 +8456,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C277" t="n">
-        <v>15</v>
-      </c>
-      <c r="D277" t="n">
+      <c r="C277" t="b">
+        <v>1</v>
+      </c>
+      <c r="D277" t="b">
         <v>0</v>
       </c>
       <c r="E277" t="n">
@@ -8485,10 +8485,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C278" t="n">
-        <v>7</v>
-      </c>
-      <c r="D278" t="n">
+      <c r="C278" t="b">
+        <v>1</v>
+      </c>
+      <c r="D278" t="b">
         <v>1</v>
       </c>
       <c r="E278" t="n">
@@ -8514,10 +8514,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C279" t="n">
-        <v>8</v>
-      </c>
-      <c r="D279" t="n">
+      <c r="C279" t="b">
+        <v>1</v>
+      </c>
+      <c r="D279" t="b">
         <v>0</v>
       </c>
       <c r="E279" t="n">
@@ -8543,10 +8543,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C280" t="n">
-        <v>11</v>
-      </c>
-      <c r="D280" t="n">
+      <c r="C280" t="b">
+        <v>1</v>
+      </c>
+      <c r="D280" t="b">
         <v>1</v>
       </c>
       <c r="E280" t="n">
@@ -8572,10 +8572,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C281" t="n">
-        <v>7</v>
-      </c>
-      <c r="D281" t="n">
+      <c r="C281" t="b">
+        <v>1</v>
+      </c>
+      <c r="D281" t="b">
         <v>0</v>
       </c>
       <c r="E281" t="n">
@@ -8601,10 +8601,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C282" t="n">
-        <v>0</v>
-      </c>
-      <c r="D282" t="n">
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" t="b">
         <v>0</v>
       </c>
       <c r="E282" t="n">
@@ -8630,10 +8630,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C283" t="n">
-        <v>0</v>
-      </c>
-      <c r="D283" t="n">
+      <c r="C283" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" t="b">
         <v>0</v>
       </c>
       <c r="E283" t="n">
@@ -8659,10 +8659,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C284" t="n">
-        <v>7</v>
-      </c>
-      <c r="D284" t="n">
+      <c r="C284" t="b">
+        <v>1</v>
+      </c>
+      <c r="D284" t="b">
         <v>0</v>
       </c>
       <c r="E284" t="n">
@@ -8688,10 +8688,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C285" t="n">
-        <v>2</v>
-      </c>
-      <c r="D285" t="n">
+      <c r="C285" t="b">
+        <v>1</v>
+      </c>
+      <c r="D285" t="b">
         <v>0</v>
       </c>
       <c r="E285" t="n">
@@ -8717,10 +8717,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C286" t="n">
-        <v>1</v>
-      </c>
-      <c r="D286" t="n">
+      <c r="C286" t="b">
+        <v>1</v>
+      </c>
+      <c r="D286" t="b">
         <v>0</v>
       </c>
       <c r="E286" t="n">
@@ -8746,10 +8746,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C287" t="n">
-        <v>0</v>
-      </c>
-      <c r="D287" t="n">
+      <c r="C287" t="b">
+        <v>0</v>
+      </c>
+      <c r="D287" t="b">
         <v>0</v>
       </c>
       <c r="E287" t="n">
@@ -8775,10 +8775,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C288" t="n">
-        <v>14</v>
-      </c>
-      <c r="D288" t="n">
+      <c r="C288" t="b">
+        <v>1</v>
+      </c>
+      <c r="D288" t="b">
         <v>0</v>
       </c>
       <c r="E288" t="n">
@@ -8804,10 +8804,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C289" t="n">
-        <v>0</v>
-      </c>
-      <c r="D289" t="n">
+      <c r="C289" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" t="b">
         <v>0</v>
       </c>
       <c r="E289" t="n">
@@ -8833,10 +8833,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C290" t="n">
-        <v>1</v>
-      </c>
-      <c r="D290" t="n">
+      <c r="C290" t="b">
+        <v>1</v>
+      </c>
+      <c r="D290" t="b">
         <v>0</v>
       </c>
       <c r="E290" t="n">
@@ -8862,10 +8862,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C291" t="n">
-        <v>1</v>
-      </c>
-      <c r="D291" t="n">
+      <c r="C291" t="b">
+        <v>1</v>
+      </c>
+      <c r="D291" t="b">
         <v>1</v>
       </c>
       <c r="E291" t="n">
@@ -8891,10 +8891,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C292" t="n">
-        <v>10</v>
-      </c>
-      <c r="D292" t="n">
+      <c r="C292" t="b">
+        <v>1</v>
+      </c>
+      <c r="D292" t="b">
         <v>1</v>
       </c>
       <c r="E292" t="n">
@@ -8920,10 +8920,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C293" t="n">
-        <v>2</v>
-      </c>
-      <c r="D293" t="n">
+      <c r="C293" t="b">
+        <v>1</v>
+      </c>
+      <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293" t="n">
@@ -8949,10 +8949,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C294" t="n">
-        <v>7</v>
-      </c>
-      <c r="D294" t="n">
+      <c r="C294" t="b">
+        <v>1</v>
+      </c>
+      <c r="D294" t="b">
         <v>1</v>
       </c>
       <c r="E294" t="n">
@@ -8978,10 +8978,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C295" t="n">
-        <v>8</v>
-      </c>
-      <c r="D295" t="n">
+      <c r="C295" t="b">
+        <v>1</v>
+      </c>
+      <c r="D295" t="b">
         <v>0</v>
       </c>
       <c r="E295" t="n">
@@ -9007,10 +9007,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C296" t="n">
-        <v>0</v>
-      </c>
-      <c r="D296" t="n">
+      <c r="C296" t="b">
+        <v>0</v>
+      </c>
+      <c r="D296" t="b">
         <v>0</v>
       </c>
       <c r="E296" t="n">
@@ -9036,10 +9036,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C297" t="n">
-        <v>0</v>
-      </c>
-      <c r="D297" t="n">
+      <c r="C297" t="b">
+        <v>0</v>
+      </c>
+      <c r="D297" t="b">
         <v>0</v>
       </c>
       <c r="E297" t="n">
@@ -9065,10 +9065,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C298" t="n">
-        <v>18</v>
-      </c>
-      <c r="D298" t="n">
+      <c r="C298" t="b">
+        <v>1</v>
+      </c>
+      <c r="D298" t="b">
         <v>1</v>
       </c>
       <c r="E298" t="n">
@@ -9094,10 +9094,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C299" t="n">
-        <v>10</v>
-      </c>
-      <c r="D299" t="n">
+      <c r="C299" t="b">
+        <v>1</v>
+      </c>
+      <c r="D299" t="b">
         <v>0</v>
       </c>
       <c r="E299" t="n">
@@ -9123,10 +9123,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C300" t="n">
-        <v>32</v>
-      </c>
-      <c r="D300" t="n">
+      <c r="C300" t="b">
+        <v>1</v>
+      </c>
+      <c r="D300" t="b">
         <v>0</v>
       </c>
       <c r="E300" t="n">
@@ -9152,10 +9152,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C301" t="n">
-        <v>0</v>
-      </c>
-      <c r="D301" t="n">
+      <c r="C301" t="b">
+        <v>0</v>
+      </c>
+      <c r="D301" t="b">
         <v>0</v>
       </c>
       <c r="E301" t="n">
@@ -9181,10 +9181,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C302" t="n">
-        <v>0</v>
-      </c>
-      <c r="D302" t="n">
+      <c r="C302" t="b">
+        <v>0</v>
+      </c>
+      <c r="D302" t="b">
         <v>0</v>
       </c>
       <c r="E302" t="n">
@@ -9210,10 +9210,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C303" t="n">
-        <v>6</v>
-      </c>
-      <c r="D303" t="n">
+      <c r="C303" t="b">
+        <v>1</v>
+      </c>
+      <c r="D303" t="b">
         <v>0</v>
       </c>
       <c r="E303" t="n">
@@ -9239,10 +9239,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C304" t="n">
-        <v>10</v>
-      </c>
-      <c r="D304" t="n">
+      <c r="C304" t="b">
+        <v>1</v>
+      </c>
+      <c r="D304" t="b">
         <v>1</v>
       </c>
       <c r="E304" t="n">
@@ -9268,10 +9268,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C305" t="n">
-        <v>11</v>
-      </c>
-      <c r="D305" t="n">
+      <c r="C305" t="b">
+        <v>1</v>
+      </c>
+      <c r="D305" t="b">
         <v>0</v>
       </c>
       <c r="E305" t="n">
@@ -9297,10 +9297,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C306" t="n">
-        <v>4</v>
-      </c>
-      <c r="D306" t="n">
+      <c r="C306" t="b">
+        <v>1</v>
+      </c>
+      <c r="D306" t="b">
         <v>0</v>
       </c>
       <c r="E306" t="n">
@@ -9326,10 +9326,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C307" t="n">
-        <v>3</v>
-      </c>
-      <c r="D307" t="n">
+      <c r="C307" t="b">
+        <v>1</v>
+      </c>
+      <c r="D307" t="b">
         <v>1</v>
       </c>
       <c r="E307" t="n">
@@ -9355,10 +9355,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C308" t="n">
-        <v>2</v>
-      </c>
-      <c r="D308" t="n">
+      <c r="C308" t="b">
+        <v>1</v>
+      </c>
+      <c r="D308" t="b">
         <v>0</v>
       </c>
       <c r="E308" t="n">
@@ -9384,10 +9384,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C309" t="n">
-        <v>2</v>
-      </c>
-      <c r="D309" t="n">
+      <c r="C309" t="b">
+        <v>1</v>
+      </c>
+      <c r="D309" t="b">
         <v>0</v>
       </c>
       <c r="E309" t="n">
@@ -9413,10 +9413,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C310" t="n">
-        <v>6</v>
-      </c>
-      <c r="D310" t="n">
+      <c r="C310" t="b">
+        <v>1</v>
+      </c>
+      <c r="D310" t="b">
         <v>1</v>
       </c>
       <c r="E310" t="n">
@@ -9442,10 +9442,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C311" t="n">
-        <v>4</v>
-      </c>
-      <c r="D311" t="n">
+      <c r="C311" t="b">
+        <v>1</v>
+      </c>
+      <c r="D311" t="b">
         <v>0</v>
       </c>
       <c r="E311" t="n">
@@ -9471,10 +9471,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C312" t="n">
-        <v>24</v>
-      </c>
-      <c r="D312" t="n">
+      <c r="C312" t="b">
+        <v>1</v>
+      </c>
+      <c r="D312" t="b">
         <v>1</v>
       </c>
       <c r="E312" t="n">
@@ -9500,10 +9500,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C313" t="n">
-        <v>20</v>
-      </c>
-      <c r="D313" t="n">
+      <c r="C313" t="b">
+        <v>1</v>
+      </c>
+      <c r="D313" t="b">
         <v>0</v>
       </c>
       <c r="E313" t="n">
@@ -9529,10 +9529,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C314" t="n">
-        <v>12</v>
-      </c>
-      <c r="D314" t="n">
+      <c r="C314" t="b">
+        <v>1</v>
+      </c>
+      <c r="D314" t="b">
         <v>0</v>
       </c>
       <c r="E314" t="n">
@@ -9558,10 +9558,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C315" t="n">
-        <v>8</v>
-      </c>
-      <c r="D315" t="n">
+      <c r="C315" t="b">
+        <v>1</v>
+      </c>
+      <c r="D315" t="b">
         <v>0</v>
       </c>
       <c r="E315" t="n">
@@ -9587,10 +9587,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C316" t="n">
-        <v>0</v>
-      </c>
-      <c r="D316" t="n">
+      <c r="C316" t="b">
+        <v>0</v>
+      </c>
+      <c r="D316" t="b">
         <v>0</v>
       </c>
       <c r="E316" t="n">
@@ -9616,10 +9616,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C317" t="n">
-        <v>1</v>
-      </c>
-      <c r="D317" t="n">
+      <c r="C317" t="b">
+        <v>1</v>
+      </c>
+      <c r="D317" t="b">
         <v>0</v>
       </c>
       <c r="E317" t="n">
@@ -9645,10 +9645,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C318" t="n">
-        <v>15</v>
-      </c>
-      <c r="D318" t="n">
+      <c r="C318" t="b">
+        <v>1</v>
+      </c>
+      <c r="D318" t="b">
         <v>0</v>
       </c>
       <c r="E318" t="n">
@@ -9674,10 +9674,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C319" t="n">
-        <v>7</v>
-      </c>
-      <c r="D319" t="n">
+      <c r="C319" t="b">
+        <v>1</v>
+      </c>
+      <c r="D319" t="b">
         <v>0</v>
       </c>
       <c r="E319" t="n">
@@ -9703,10 +9703,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C320" t="n">
-        <v>16</v>
-      </c>
-      <c r="D320" t="n">
+      <c r="C320" t="b">
+        <v>1</v>
+      </c>
+      <c r="D320" t="b">
         <v>1</v>
       </c>
       <c r="E320" t="n">
@@ -9732,10 +9732,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C321" t="n">
-        <v>7</v>
-      </c>
-      <c r="D321" t="n">
+      <c r="C321" t="b">
+        <v>1</v>
+      </c>
+      <c r="D321" t="b">
         <v>0</v>
       </c>
       <c r="E321" t="n">
@@ -9761,10 +9761,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C322" t="n">
-        <v>0</v>
-      </c>
-      <c r="D322" t="n">
+      <c r="C322" t="b">
+        <v>0</v>
+      </c>
+      <c r="D322" t="b">
         <v>0</v>
       </c>
       <c r="E322" t="n">
@@ -9790,10 +9790,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C323" t="n">
-        <v>0</v>
-      </c>
-      <c r="D323" t="n">
+      <c r="C323" t="b">
+        <v>0</v>
+      </c>
+      <c r="D323" t="b">
         <v>0</v>
       </c>
       <c r="E323" t="n">
@@ -9819,10 +9819,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C324" t="n">
-        <v>14</v>
-      </c>
-      <c r="D324" t="n">
+      <c r="C324" t="b">
+        <v>1</v>
+      </c>
+      <c r="D324" t="b">
         <v>0</v>
       </c>
       <c r="E324" t="n">
@@ -9848,10 +9848,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C325" t="n">
-        <v>9</v>
-      </c>
-      <c r="D325" t="n">
+      <c r="C325" t="b">
+        <v>1</v>
+      </c>
+      <c r="D325" t="b">
         <v>0</v>
       </c>
       <c r="E325" t="n">
@@ -9877,10 +9877,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C326" t="n">
-        <v>20</v>
-      </c>
-      <c r="D326" t="n">
+      <c r="C326" t="b">
+        <v>1</v>
+      </c>
+      <c r="D326" t="b">
         <v>0</v>
       </c>
       <c r="E326" t="n">
@@ -9906,10 +9906,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C327" t="n">
-        <v>17</v>
-      </c>
-      <c r="D327" t="n">
+      <c r="C327" t="b">
+        <v>1</v>
+      </c>
+      <c r="D327" t="b">
         <v>0</v>
       </c>
       <c r="E327" t="n">
@@ -9935,10 +9935,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C328" t="n">
-        <v>4</v>
-      </c>
-      <c r="D328" t="n">
+      <c r="C328" t="b">
+        <v>1</v>
+      </c>
+      <c r="D328" t="b">
         <v>1</v>
       </c>
       <c r="E328" t="n">
@@ -9964,10 +9964,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C329" t="n">
-        <v>4</v>
-      </c>
-      <c r="D329" t="n">
+      <c r="C329" t="b">
+        <v>1</v>
+      </c>
+      <c r="D329" t="b">
         <v>0</v>
       </c>
       <c r="E329" t="n">
@@ -9993,10 +9993,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C330" t="n">
-        <v>9</v>
-      </c>
-      <c r="D330" t="n">
+      <c r="C330" t="b">
+        <v>1</v>
+      </c>
+      <c r="D330" t="b">
         <v>1</v>
       </c>
       <c r="E330" t="n">
@@ -10022,10 +10022,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C331" t="n">
-        <v>9</v>
-      </c>
-      <c r="D331" t="n">
+      <c r="C331" t="b">
+        <v>1</v>
+      </c>
+      <c r="D331" t="b">
         <v>1</v>
       </c>
       <c r="E331" t="n">
@@ -10051,10 +10051,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C332" t="n">
-        <v>0</v>
-      </c>
-      <c r="D332" t="n">
+      <c r="C332" t="b">
+        <v>0</v>
+      </c>
+      <c r="D332" t="b">
         <v>0</v>
       </c>
       <c r="E332" t="n">
@@ -10080,10 +10080,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C333" t="n">
-        <v>1</v>
-      </c>
-      <c r="D333" t="n">
+      <c r="C333" t="b">
+        <v>1</v>
+      </c>
+      <c r="D333" t="b">
         <v>0</v>
       </c>
       <c r="E333" t="n">
@@ -10109,10 +10109,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C334" t="n">
-        <v>6</v>
-      </c>
-      <c r="D334" t="n">
+      <c r="C334" t="b">
+        <v>1</v>
+      </c>
+      <c r="D334" t="b">
         <v>1</v>
       </c>
       <c r="E334" t="n">
@@ -10138,10 +10138,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C335" t="n">
-        <v>4</v>
-      </c>
-      <c r="D335" t="n">
+      <c r="C335" t="b">
+        <v>1</v>
+      </c>
+      <c r="D335" t="b">
         <v>0</v>
       </c>
       <c r="E335" t="n">
@@ -10167,10 +10167,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C336" t="n">
-        <v>23</v>
-      </c>
-      <c r="D336" t="n">
+      <c r="C336" t="b">
+        <v>1</v>
+      </c>
+      <c r="D336" t="b">
         <v>1</v>
       </c>
       <c r="E336" t="n">
@@ -10196,10 +10196,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C337" t="n">
-        <v>0</v>
-      </c>
-      <c r="D337" t="n">
+      <c r="C337" t="b">
+        <v>0</v>
+      </c>
+      <c r="D337" t="b">
         <v>0</v>
       </c>
       <c r="E337" t="n">
@@ -10225,10 +10225,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C338" t="n">
-        <v>3</v>
-      </c>
-      <c r="D338" t="n">
+      <c r="C338" t="b">
+        <v>1</v>
+      </c>
+      <c r="D338" t="b">
         <v>0</v>
       </c>
       <c r="E338" t="n">
@@ -10254,10 +10254,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C339" t="n">
-        <v>8</v>
-      </c>
-      <c r="D339" t="n">
+      <c r="C339" t="b">
+        <v>1</v>
+      </c>
+      <c r="D339" t="b">
         <v>0</v>
       </c>
       <c r="E339" t="n">
@@ -10283,10 +10283,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C340" t="n">
-        <v>3</v>
-      </c>
-      <c r="D340" t="n">
+      <c r="C340" t="b">
+        <v>1</v>
+      </c>
+      <c r="D340" t="b">
         <v>0</v>
       </c>
       <c r="E340" t="n">
@@ -10312,10 +10312,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C341" t="n">
-        <v>8</v>
-      </c>
-      <c r="D341" t="n">
+      <c r="C341" t="b">
+        <v>1</v>
+      </c>
+      <c r="D341" t="b">
         <v>0</v>
       </c>
       <c r="E341" t="n">
@@ -10341,10 +10341,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C342" t="n">
-        <v>13</v>
-      </c>
-      <c r="D342" t="n">
+      <c r="C342" t="b">
+        <v>1</v>
+      </c>
+      <c r="D342" t="b">
         <v>0</v>
       </c>
       <c r="E342" t="n">
@@ -10370,10 +10370,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C343" t="n">
-        <v>15</v>
-      </c>
-      <c r="D343" t="n">
+      <c r="C343" t="b">
+        <v>1</v>
+      </c>
+      <c r="D343" t="b">
         <v>0</v>
       </c>
       <c r="E343" t="n">
@@ -10399,10 +10399,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C344" t="n">
-        <v>3</v>
-      </c>
-      <c r="D344" t="n">
+      <c r="C344" t="b">
+        <v>1</v>
+      </c>
+      <c r="D344" t="b">
         <v>0</v>
       </c>
       <c r="E344" t="n">
@@ -10428,10 +10428,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C345" t="n">
-        <v>6</v>
-      </c>
-      <c r="D345" t="n">
+      <c r="C345" t="b">
+        <v>1</v>
+      </c>
+      <c r="D345" t="b">
         <v>0</v>
       </c>
       <c r="E345" t="n">
@@ -10457,10 +10457,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C346" t="n">
-        <v>5</v>
-      </c>
-      <c r="D346" t="n">
+      <c r="C346" t="b">
+        <v>1</v>
+      </c>
+      <c r="D346" t="b">
         <v>0</v>
       </c>
       <c r="E346" t="n">
@@ -10486,10 +10486,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C347" t="n">
-        <v>6</v>
-      </c>
-      <c r="D347" t="n">
+      <c r="C347" t="b">
+        <v>1</v>
+      </c>
+      <c r="D347" t="b">
         <v>0</v>
       </c>
       <c r="E347" t="n">
@@ -10515,10 +10515,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C348" t="n">
-        <v>13</v>
-      </c>
-      <c r="D348" t="n">
+      <c r="C348" t="b">
+        <v>1</v>
+      </c>
+      <c r="D348" t="b">
         <v>1</v>
       </c>
       <c r="E348" t="n">
@@ -10544,10 +10544,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C349" t="n">
-        <v>8</v>
-      </c>
-      <c r="D349" t="n">
+      <c r="C349" t="b">
+        <v>1</v>
+      </c>
+      <c r="D349" t="b">
         <v>0</v>
       </c>
       <c r="E349" t="n">
@@ -10573,10 +10573,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C350" t="n">
-        <v>18</v>
-      </c>
-      <c r="D350" t="n">
+      <c r="C350" t="b">
+        <v>1</v>
+      </c>
+      <c r="D350" t="b">
         <v>1</v>
       </c>
       <c r="E350" t="n">
@@ -10602,10 +10602,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C351" t="n">
-        <v>4</v>
-      </c>
-      <c r="D351" t="n">
+      <c r="C351" t="b">
+        <v>1</v>
+      </c>
+      <c r="D351" t="b">
         <v>0</v>
       </c>
       <c r="E351" t="n">
@@ -10631,10 +10631,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C352" t="n">
-        <v>0</v>
-      </c>
-      <c r="D352" t="n">
+      <c r="C352" t="b">
+        <v>0</v>
+      </c>
+      <c r="D352" t="b">
         <v>0</v>
       </c>
       <c r="E352" t="n">
@@ -10660,10 +10660,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C353" t="n">
-        <v>0</v>
-      </c>
-      <c r="D353" t="n">
+      <c r="C353" t="b">
+        <v>0</v>
+      </c>
+      <c r="D353" t="b">
         <v>0</v>
       </c>
       <c r="E353" t="n">
@@ -10689,10 +10689,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C354" t="n">
-        <v>0</v>
-      </c>
-      <c r="D354" t="n">
+      <c r="C354" t="b">
+        <v>0</v>
+      </c>
+      <c r="D354" t="b">
         <v>0</v>
       </c>
       <c r="E354" t="n">
@@ -10718,10 +10718,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C355" t="n">
-        <v>2</v>
-      </c>
-      <c r="D355" t="n">
+      <c r="C355" t="b">
+        <v>1</v>
+      </c>
+      <c r="D355" t="b">
         <v>0</v>
       </c>
       <c r="E355" t="n">
@@ -10747,10 +10747,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C356" t="n">
-        <v>14</v>
-      </c>
-      <c r="D356" t="n">
+      <c r="C356" t="b">
+        <v>1</v>
+      </c>
+      <c r="D356" t="b">
         <v>0</v>
       </c>
       <c r="E356" t="n">
@@ -10776,10 +10776,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C357" t="n">
-        <v>12</v>
-      </c>
-      <c r="D357" t="n">
+      <c r="C357" t="b">
+        <v>1</v>
+      </c>
+      <c r="D357" t="b">
         <v>0</v>
       </c>
       <c r="E357" t="n">
@@ -10805,10 +10805,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C358" t="n">
-        <v>3</v>
-      </c>
-      <c r="D358" t="n">
+      <c r="C358" t="b">
+        <v>1</v>
+      </c>
+      <c r="D358" t="b">
         <v>0</v>
       </c>
       <c r="E358" t="n">
@@ -10834,10 +10834,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C359" t="n">
-        <v>8</v>
-      </c>
-      <c r="D359" t="n">
+      <c r="C359" t="b">
+        <v>1</v>
+      </c>
+      <c r="D359" t="b">
         <v>0</v>
       </c>
       <c r="E359" t="n">
@@ -10863,10 +10863,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C360" t="n">
-        <v>2</v>
-      </c>
-      <c r="D360" t="n">
+      <c r="C360" t="b">
+        <v>1</v>
+      </c>
+      <c r="D360" t="b">
         <v>0</v>
       </c>
       <c r="E360" t="n">
@@ -10892,10 +10892,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C361" t="n">
-        <v>16</v>
-      </c>
-      <c r="D361" t="n">
+      <c r="C361" t="b">
+        <v>1</v>
+      </c>
+      <c r="D361" t="b">
         <v>0</v>
       </c>
       <c r="E361" t="n">
@@ -10921,10 +10921,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C362" t="n">
-        <v>6</v>
-      </c>
-      <c r="D362" t="n">
+      <c r="C362" t="b">
+        <v>1</v>
+      </c>
+      <c r="D362" t="b">
         <v>1</v>
       </c>
       <c r="E362" t="n">
@@ -10950,10 +10950,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C363" t="n">
-        <v>7</v>
-      </c>
-      <c r="D363" t="n">
+      <c r="C363" t="b">
+        <v>1</v>
+      </c>
+      <c r="D363" t="b">
         <v>0</v>
       </c>
       <c r="E363" t="n">
@@ -10979,10 +10979,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C364" t="n">
-        <v>9</v>
-      </c>
-      <c r="D364" t="n">
+      <c r="C364" t="b">
+        <v>1</v>
+      </c>
+      <c r="D364" t="b">
         <v>0</v>
       </c>
       <c r="E364" t="n">
@@ -11008,10 +11008,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C365" t="n">
-        <v>11</v>
-      </c>
-      <c r="D365" t="n">
+      <c r="C365" t="b">
+        <v>1</v>
+      </c>
+      <c r="D365" t="b">
         <v>1</v>
       </c>
       <c r="E365" t="n">
@@ -11037,10 +11037,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C366" t="n">
-        <v>16</v>
-      </c>
-      <c r="D366" t="n">
+      <c r="C366" t="b">
+        <v>1</v>
+      </c>
+      <c r="D366" t="b">
         <v>0</v>
       </c>
       <c r="E366" t="n">
@@ -11066,10 +11066,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C367" t="n">
-        <v>4</v>
-      </c>
-      <c r="D367" t="n">
+      <c r="C367" t="b">
+        <v>1</v>
+      </c>
+      <c r="D367" t="b">
         <v>1</v>
       </c>
       <c r="E367" t="n">
@@ -11095,10 +11095,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C368" t="n">
-        <v>11</v>
-      </c>
-      <c r="D368" t="n">
+      <c r="C368" t="b">
+        <v>1</v>
+      </c>
+      <c r="D368" t="b">
         <v>0</v>
       </c>
       <c r="E368" t="n">
@@ -11124,10 +11124,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C369" t="n">
-        <v>11</v>
-      </c>
-      <c r="D369" t="n">
+      <c r="C369" t="b">
+        <v>1</v>
+      </c>
+      <c r="D369" t="b">
         <v>0</v>
       </c>
       <c r="E369" t="n">
@@ -11153,10 +11153,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C370" t="n">
-        <v>3</v>
-      </c>
-      <c r="D370" t="n">
+      <c r="C370" t="b">
+        <v>1</v>
+      </c>
+      <c r="D370" t="b">
         <v>0</v>
       </c>
       <c r="E370" t="n">
@@ -11182,10 +11182,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C371" t="n">
-        <v>3</v>
-      </c>
-      <c r="D371" t="n">
+      <c r="C371" t="b">
+        <v>1</v>
+      </c>
+      <c r="D371" t="b">
         <v>0</v>
       </c>
       <c r="E371" t="n">
@@ -11211,10 +11211,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C372" t="n">
-        <v>4</v>
-      </c>
-      <c r="D372" t="n">
+      <c r="C372" t="b">
+        <v>1</v>
+      </c>
+      <c r="D372" t="b">
         <v>0</v>
       </c>
       <c r="E372" t="n">
@@ -11240,10 +11240,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C373" t="n">
-        <v>1</v>
-      </c>
-      <c r="D373" t="n">
+      <c r="C373" t="b">
+        <v>1</v>
+      </c>
+      <c r="D373" t="b">
         <v>0</v>
       </c>
       <c r="E373" t="n">
@@ -11269,10 +11269,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C374" t="n">
-        <v>20</v>
-      </c>
-      <c r="D374" t="n">
+      <c r="C374" t="b">
+        <v>1</v>
+      </c>
+      <c r="D374" t="b">
         <v>1</v>
       </c>
       <c r="E374" t="n">
@@ -11298,10 +11298,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C375" t="n">
-        <v>10</v>
-      </c>
-      <c r="D375" t="n">
+      <c r="C375" t="b">
+        <v>1</v>
+      </c>
+      <c r="D375" t="b">
         <v>0</v>
       </c>
       <c r="E375" t="n">
@@ -11327,10 +11327,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C376" t="n">
-        <v>13</v>
-      </c>
-      <c r="D376" t="n">
+      <c r="C376" t="b">
+        <v>1</v>
+      </c>
+      <c r="D376" t="b">
         <v>0</v>
       </c>
       <c r="E376" t="n">
@@ -11356,10 +11356,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C377" t="n">
-        <v>12</v>
-      </c>
-      <c r="D377" t="n">
+      <c r="C377" t="b">
+        <v>1</v>
+      </c>
+      <c r="D377" t="b">
         <v>0</v>
       </c>
       <c r="E377" t="n">
@@ -11385,10 +11385,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C378" t="n">
-        <v>0</v>
-      </c>
-      <c r="D378" t="n">
+      <c r="C378" t="b">
+        <v>0</v>
+      </c>
+      <c r="D378" t="b">
         <v>0</v>
       </c>
       <c r="E378" t="n">
@@ -11414,10 +11414,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C379" t="n">
-        <v>0</v>
-      </c>
-      <c r="D379" t="n">
+      <c r="C379" t="b">
+        <v>0</v>
+      </c>
+      <c r="D379" t="b">
         <v>0</v>
       </c>
       <c r="E379" t="n">
@@ -11443,10 +11443,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C380" t="n">
-        <v>9</v>
-      </c>
-      <c r="D380" t="n">
+      <c r="C380" t="b">
+        <v>1</v>
+      </c>
+      <c r="D380" t="b">
         <v>0</v>
       </c>
       <c r="E380" t="n">
@@ -11472,10 +11472,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C381" t="n">
-        <v>8</v>
-      </c>
-      <c r="D381" t="n">
+      <c r="C381" t="b">
+        <v>1</v>
+      </c>
+      <c r="D381" t="b">
         <v>0</v>
       </c>
       <c r="E381" t="n">
@@ -11501,10 +11501,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C382" t="n">
-        <v>8</v>
-      </c>
-      <c r="D382" t="n">
+      <c r="C382" t="b">
+        <v>1</v>
+      </c>
+      <c r="D382" t="b">
         <v>0</v>
       </c>
       <c r="E382" t="n">
@@ -11530,10 +11530,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C383" t="n">
-        <v>10</v>
-      </c>
-      <c r="D383" t="n">
+      <c r="C383" t="b">
+        <v>1</v>
+      </c>
+      <c r="D383" t="b">
         <v>1</v>
       </c>
       <c r="E383" t="n">
@@ -11559,10 +11559,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C384" t="n">
-        <v>1</v>
-      </c>
-      <c r="D384" t="n">
+      <c r="C384" t="b">
+        <v>1</v>
+      </c>
+      <c r="D384" t="b">
         <v>0</v>
       </c>
       <c r="E384" t="n">
@@ -11588,10 +11588,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C385" t="n">
-        <v>2</v>
-      </c>
-      <c r="D385" t="n">
+      <c r="C385" t="b">
+        <v>1</v>
+      </c>
+      <c r="D385" t="b">
         <v>0</v>
       </c>
       <c r="E385" t="n">
@@ -11617,10 +11617,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C386" t="n">
-        <v>8</v>
-      </c>
-      <c r="D386" t="n">
+      <c r="C386" t="b">
+        <v>1</v>
+      </c>
+      <c r="D386" t="b">
         <v>0</v>
       </c>
       <c r="E386" t="n">
@@ -11646,10 +11646,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C387" t="n">
-        <v>3</v>
-      </c>
-      <c r="D387" t="n">
+      <c r="C387" t="b">
+        <v>1</v>
+      </c>
+      <c r="D387" t="b">
         <v>0</v>
       </c>
       <c r="E387" t="n">
@@ -11675,10 +11675,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C388" t="n">
-        <v>2</v>
-      </c>
-      <c r="D388" t="n">
+      <c r="C388" t="b">
+        <v>1</v>
+      </c>
+      <c r="D388" t="b">
         <v>0</v>
       </c>
       <c r="E388" t="n">
@@ -11704,10 +11704,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C389" t="n">
-        <v>1</v>
-      </c>
-      <c r="D389" t="n">
+      <c r="C389" t="b">
+        <v>1</v>
+      </c>
+      <c r="D389" t="b">
         <v>0</v>
       </c>
       <c r="E389" t="n">
@@ -11733,10 +11733,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C390" t="n">
-        <v>9</v>
-      </c>
-      <c r="D390" t="n">
+      <c r="C390" t="b">
+        <v>1</v>
+      </c>
+      <c r="D390" t="b">
         <v>0</v>
       </c>
       <c r="E390" t="n">
@@ -11762,10 +11762,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C391" t="n">
-        <v>13</v>
-      </c>
-      <c r="D391" t="n">
+      <c r="C391" t="b">
+        <v>1</v>
+      </c>
+      <c r="D391" t="b">
         <v>0</v>
       </c>
       <c r="E391" t="n">
@@ -11791,10 +11791,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C392" t="n">
-        <v>1</v>
-      </c>
-      <c r="D392" t="n">
+      <c r="C392" t="b">
+        <v>1</v>
+      </c>
+      <c r="D392" t="b">
         <v>0</v>
       </c>
       <c r="E392" t="n">
@@ -11820,10 +11820,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C393" t="n">
-        <v>1</v>
-      </c>
-      <c r="D393" t="n">
+      <c r="C393" t="b">
+        <v>1</v>
+      </c>
+      <c r="D393" t="b">
         <v>0</v>
       </c>
       <c r="E393" t="n">
@@ -11849,10 +11849,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C394" t="n">
-        <v>3</v>
-      </c>
-      <c r="D394" t="n">
+      <c r="C394" t="b">
+        <v>1</v>
+      </c>
+      <c r="D394" t="b">
         <v>1</v>
       </c>
       <c r="E394" t="n">
@@ -11878,10 +11878,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C395" t="n">
-        <v>0</v>
-      </c>
-      <c r="D395" t="n">
+      <c r="C395" t="b">
+        <v>0</v>
+      </c>
+      <c r="D395" t="b">
         <v>0</v>
       </c>
       <c r="E395" t="n">
@@ -11907,10 +11907,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C396" t="n">
-        <v>0</v>
-      </c>
-      <c r="D396" t="n">
+      <c r="C396" t="b">
+        <v>0</v>
+      </c>
+      <c r="D396" t="b">
         <v>0</v>
       </c>
       <c r="E396" t="n">
@@ -11936,10 +11936,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C397" t="n">
-        <v>3</v>
-      </c>
-      <c r="D397" t="n">
+      <c r="C397" t="b">
+        <v>1</v>
+      </c>
+      <c r="D397" t="b">
         <v>0</v>
       </c>
       <c r="E397" t="n">
@@ -11965,10 +11965,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C398" t="n">
-        <v>3</v>
-      </c>
-      <c r="D398" t="n">
+      <c r="C398" t="b">
+        <v>1</v>
+      </c>
+      <c r="D398" t="b">
         <v>0</v>
       </c>
       <c r="E398" t="n">
@@ -11994,10 +11994,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C399" t="n">
-        <v>4</v>
-      </c>
-      <c r="D399" t="n">
+      <c r="C399" t="b">
+        <v>1</v>
+      </c>
+      <c r="D399" t="b">
         <v>0</v>
       </c>
       <c r="E399" t="n">
@@ -12023,10 +12023,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C400" t="n">
-        <v>24</v>
-      </c>
-      <c r="D400" t="n">
+      <c r="C400" t="b">
+        <v>1</v>
+      </c>
+      <c r="D400" t="b">
         <v>1</v>
       </c>
       <c r="E400" t="n">
@@ -12052,10 +12052,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C401" t="n">
-        <v>0</v>
-      </c>
-      <c r="D401" t="n">
+      <c r="C401" t="b">
+        <v>0</v>
+      </c>
+      <c r="D401" t="b">
         <v>0</v>
       </c>
       <c r="E401" t="n">
@@ -12081,10 +12081,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C402" t="n">
-        <v>3</v>
-      </c>
-      <c r="D402" t="n">
+      <c r="C402" t="b">
+        <v>1</v>
+      </c>
+      <c r="D402" t="b">
         <v>0</v>
       </c>
       <c r="E402" t="n">
@@ -12110,10 +12110,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C403" t="n">
-        <v>0</v>
-      </c>
-      <c r="D403" t="n">
+      <c r="C403" t="b">
+        <v>0</v>
+      </c>
+      <c r="D403" t="b">
         <v>0</v>
       </c>
       <c r="E403" t="n">
@@ -12139,10 +12139,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C404" t="n">
-        <v>3</v>
-      </c>
-      <c r="D404" t="n">
+      <c r="C404" t="b">
+        <v>1</v>
+      </c>
+      <c r="D404" t="b">
         <v>0</v>
       </c>
       <c r="E404" t="n">
@@ -12168,10 +12168,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C405" t="n">
-        <v>0</v>
-      </c>
-      <c r="D405" t="n">
+      <c r="C405" t="b">
+        <v>0</v>
+      </c>
+      <c r="D405" t="b">
         <v>0</v>
       </c>
       <c r="E405" t="n">
@@ -12197,10 +12197,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C406" t="n">
-        <v>24</v>
-      </c>
-      <c r="D406" t="n">
+      <c r="C406" t="b">
+        <v>1</v>
+      </c>
+      <c r="D406" t="b">
         <v>0</v>
       </c>
       <c r="E406" t="n">
@@ -12226,10 +12226,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C407" t="n">
-        <v>13</v>
-      </c>
-      <c r="D407" t="n">
+      <c r="C407" t="b">
+        <v>1</v>
+      </c>
+      <c r="D407" t="b">
         <v>0</v>
       </c>
       <c r="E407" t="n">
@@ -12255,10 +12255,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C408" t="n">
-        <v>0</v>
-      </c>
-      <c r="D408" t="n">
+      <c r="C408" t="b">
+        <v>0</v>
+      </c>
+      <c r="D408" t="b">
         <v>0</v>
       </c>
       <c r="E408" t="n">
@@ -12284,10 +12284,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C409" t="n">
-        <v>0</v>
-      </c>
-      <c r="D409" t="n">
+      <c r="C409" t="b">
+        <v>0</v>
+      </c>
+      <c r="D409" t="b">
         <v>0</v>
       </c>
       <c r="E409" t="n">
@@ -12313,10 +12313,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C410" t="n">
-        <v>2</v>
-      </c>
-      <c r="D410" t="n">
+      <c r="C410" t="b">
+        <v>1</v>
+      </c>
+      <c r="D410" t="b">
         <v>0</v>
       </c>
       <c r="E410" t="n">
@@ -12342,10 +12342,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C411" t="n">
-        <v>5</v>
-      </c>
-      <c r="D411" t="n">
+      <c r="C411" t="b">
+        <v>1</v>
+      </c>
+      <c r="D411" t="b">
         <v>0</v>
       </c>
       <c r="E411" t="n">
@@ -12371,10 +12371,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C412" t="n">
-        <v>2</v>
-      </c>
-      <c r="D412" t="n">
+      <c r="C412" t="b">
+        <v>1</v>
+      </c>
+      <c r="D412" t="b">
         <v>0</v>
       </c>
       <c r="E412" t="n">
@@ -12400,10 +12400,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C413" t="n">
-        <v>3</v>
-      </c>
-      <c r="D413" t="n">
+      <c r="C413" t="b">
+        <v>1</v>
+      </c>
+      <c r="D413" t="b">
         <v>0</v>
       </c>
       <c r="E413" t="n">
@@ -12429,10 +12429,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C414" t="n">
-        <v>6</v>
-      </c>
-      <c r="D414" t="n">
+      <c r="C414" t="b">
+        <v>1</v>
+      </c>
+      <c r="D414" t="b">
         <v>0</v>
       </c>
       <c r="E414" t="n">
@@ -12458,10 +12458,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C415" t="n">
-        <v>2</v>
-      </c>
-      <c r="D415" t="n">
+      <c r="C415" t="b">
+        <v>1</v>
+      </c>
+      <c r="D415" t="b">
         <v>0</v>
       </c>
       <c r="E415" t="n">
@@ -12487,10 +12487,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C416" t="n">
-        <v>9</v>
-      </c>
-      <c r="D416" t="n">
+      <c r="C416" t="b">
+        <v>1</v>
+      </c>
+      <c r="D416" t="b">
         <v>0</v>
       </c>
       <c r="E416" t="n">
@@ -12516,10 +12516,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C417" t="n">
-        <v>11</v>
-      </c>
-      <c r="D417" t="n">
+      <c r="C417" t="b">
+        <v>1</v>
+      </c>
+      <c r="D417" t="b">
         <v>1</v>
       </c>
       <c r="E417" t="n">
@@ -12545,10 +12545,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C418" t="n">
-        <v>15</v>
-      </c>
-      <c r="D418" t="n">
+      <c r="C418" t="b">
+        <v>1</v>
+      </c>
+      <c r="D418" t="b">
         <v>1</v>
       </c>
       <c r="E418" t="n">
@@ -12574,10 +12574,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C419" t="n">
-        <v>13</v>
-      </c>
-      <c r="D419" t="n">
+      <c r="C419" t="b">
+        <v>1</v>
+      </c>
+      <c r="D419" t="b">
         <v>0</v>
       </c>
       <c r="E419" t="n">
@@ -12603,10 +12603,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C420" t="n">
-        <v>4</v>
-      </c>
-      <c r="D420" t="n">
+      <c r="C420" t="b">
+        <v>1</v>
+      </c>
+      <c r="D420" t="b">
         <v>0</v>
       </c>
       <c r="E420" t="n">
@@ -12632,10 +12632,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C421" t="n">
-        <v>6</v>
-      </c>
-      <c r="D421" t="n">
+      <c r="C421" t="b">
+        <v>1</v>
+      </c>
+      <c r="D421" t="b">
         <v>0</v>
       </c>
       <c r="E421" t="n">
@@ -12661,10 +12661,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C422" t="n">
-        <v>10</v>
-      </c>
-      <c r="D422" t="n">
+      <c r="C422" t="b">
+        <v>1</v>
+      </c>
+      <c r="D422" t="b">
         <v>1</v>
       </c>
       <c r="E422" t="n">
@@ -12690,10 +12690,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C423" t="n">
-        <v>4</v>
-      </c>
-      <c r="D423" t="n">
+      <c r="C423" t="b">
+        <v>1</v>
+      </c>
+      <c r="D423" t="b">
         <v>0</v>
       </c>
       <c r="E423" t="n">
@@ -12719,10 +12719,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C424" t="n">
-        <v>2</v>
-      </c>
-      <c r="D424" t="n">
+      <c r="C424" t="b">
+        <v>1</v>
+      </c>
+      <c r="D424" t="b">
         <v>0</v>
       </c>
       <c r="E424" t="n">
@@ -12748,10 +12748,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C425" t="n">
-        <v>1</v>
-      </c>
-      <c r="D425" t="n">
+      <c r="C425" t="b">
+        <v>1</v>
+      </c>
+      <c r="D425" t="b">
         <v>0</v>
       </c>
       <c r="E425" t="n">
@@ -12777,10 +12777,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C426" t="n">
-        <v>4</v>
-      </c>
-      <c r="D426" t="n">
+      <c r="C426" t="b">
+        <v>1</v>
+      </c>
+      <c r="D426" t="b">
         <v>1</v>
       </c>
       <c r="E426" t="n">
@@ -12806,10 +12806,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C427" t="n">
-        <v>4</v>
-      </c>
-      <c r="D427" t="n">
+      <c r="C427" t="b">
+        <v>1</v>
+      </c>
+      <c r="D427" t="b">
         <v>0</v>
       </c>
       <c r="E427" t="n">
@@ -12835,10 +12835,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C428" t="n">
-        <v>2</v>
-      </c>
-      <c r="D428" t="n">
+      <c r="C428" t="b">
+        <v>1</v>
+      </c>
+      <c r="D428" t="b">
         <v>0</v>
       </c>
       <c r="E428" t="n">
@@ -12864,10 +12864,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C429" t="n">
-        <v>0</v>
-      </c>
-      <c r="D429" t="n">
+      <c r="C429" t="b">
+        <v>0</v>
+      </c>
+      <c r="D429" t="b">
         <v>0</v>
       </c>
       <c r="E429" t="n">
@@ -12893,10 +12893,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C430" t="n">
-        <v>3</v>
-      </c>
-      <c r="D430" t="n">
+      <c r="C430" t="b">
+        <v>1</v>
+      </c>
+      <c r="D430" t="b">
         <v>0</v>
       </c>
       <c r="E430" t="n">
@@ -12922,10 +12922,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C431" t="n">
-        <v>2</v>
-      </c>
-      <c r="D431" t="n">
+      <c r="C431" t="b">
+        <v>1</v>
+      </c>
+      <c r="D431" t="b">
         <v>0</v>
       </c>
       <c r="E431" t="n">
@@ -12951,10 +12951,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C432" t="n">
-        <v>7</v>
-      </c>
-      <c r="D432" t="n">
+      <c r="C432" t="b">
+        <v>1</v>
+      </c>
+      <c r="D432" t="b">
         <v>0</v>
       </c>
       <c r="E432" t="n">
@@ -12980,10 +12980,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C433" t="n">
-        <v>5</v>
-      </c>
-      <c r="D433" t="n">
+      <c r="C433" t="b">
+        <v>1</v>
+      </c>
+      <c r="D433" t="b">
         <v>0</v>
       </c>
       <c r="E433" t="n">
@@ -13009,10 +13009,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C434" t="n">
-        <v>5</v>
-      </c>
-      <c r="D434" t="n">
+      <c r="C434" t="b">
+        <v>1</v>
+      </c>
+      <c r="D434" t="b">
         <v>1</v>
       </c>
       <c r="E434" t="n">
@@ -13038,10 +13038,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C435" t="n">
-        <v>5</v>
-      </c>
-      <c r="D435" t="n">
+      <c r="C435" t="b">
+        <v>1</v>
+      </c>
+      <c r="D435" t="b">
         <v>0</v>
       </c>
       <c r="E435" t="n">
@@ -13067,10 +13067,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C436" t="n">
-        <v>0</v>
-      </c>
-      <c r="D436" t="n">
+      <c r="C436" t="b">
+        <v>0</v>
+      </c>
+      <c r="D436" t="b">
         <v>0</v>
       </c>
       <c r="E436" t="n">
@@ -13096,10 +13096,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C437" t="n">
-        <v>2</v>
-      </c>
-      <c r="D437" t="n">
+      <c r="C437" t="b">
+        <v>1</v>
+      </c>
+      <c r="D437" t="b">
         <v>0</v>
       </c>
       <c r="E437" t="n">
@@ -13125,10 +13125,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C438" t="n">
-        <v>1</v>
-      </c>
-      <c r="D438" t="n">
+      <c r="C438" t="b">
+        <v>1</v>
+      </c>
+      <c r="D438" t="b">
         <v>0</v>
       </c>
       <c r="E438" t="n">
@@ -13154,10 +13154,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C439" t="n">
-        <v>3</v>
-      </c>
-      <c r="D439" t="n">
+      <c r="C439" t="b">
+        <v>1</v>
+      </c>
+      <c r="D439" t="b">
         <v>1</v>
       </c>
       <c r="E439" t="n">
@@ -13183,10 +13183,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C440" t="n">
-        <v>8</v>
-      </c>
-      <c r="D440" t="n">
+      <c r="C440" t="b">
+        <v>1</v>
+      </c>
+      <c r="D440" t="b">
         <v>0</v>
       </c>
       <c r="E440" t="n">
@@ -13212,10 +13212,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C441" t="n">
-        <v>4</v>
-      </c>
-      <c r="D441" t="n">
+      <c r="C441" t="b">
+        <v>1</v>
+      </c>
+      <c r="D441" t="b">
         <v>0</v>
       </c>
       <c r="E441" t="n">
@@ -13241,10 +13241,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C442" t="n">
-        <v>4</v>
-      </c>
-      <c r="D442" t="n">
+      <c r="C442" t="b">
+        <v>1</v>
+      </c>
+      <c r="D442" t="b">
         <v>0</v>
       </c>
       <c r="E442" t="n">
@@ -13270,10 +13270,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C443" t="n">
-        <v>4</v>
-      </c>
-      <c r="D443" t="n">
+      <c r="C443" t="b">
+        <v>1</v>
+      </c>
+      <c r="D443" t="b">
         <v>0</v>
       </c>
       <c r="E443" t="n">
@@ -13299,10 +13299,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C444" t="n">
-        <v>12</v>
-      </c>
-      <c r="D444" t="n">
+      <c r="C444" t="b">
+        <v>1</v>
+      </c>
+      <c r="D444" t="b">
         <v>0</v>
       </c>
       <c r="E444" t="n">
@@ -13328,10 +13328,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C445" t="n">
-        <v>7</v>
-      </c>
-      <c r="D445" t="n">
+      <c r="C445" t="b">
+        <v>1</v>
+      </c>
+      <c r="D445" t="b">
         <v>0</v>
       </c>
       <c r="E445" t="n">
@@ -13357,10 +13357,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C446" t="n">
-        <v>7</v>
-      </c>
-      <c r="D446" t="n">
+      <c r="C446" t="b">
+        <v>1</v>
+      </c>
+      <c r="D446" t="b">
         <v>0</v>
       </c>
       <c r="E446" t="n">
@@ -13386,10 +13386,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C447" t="n">
-        <v>0</v>
-      </c>
-      <c r="D447" t="n">
+      <c r="C447" t="b">
+        <v>0</v>
+      </c>
+      <c r="D447" t="b">
         <v>0</v>
       </c>
       <c r="E447" t="n">
@@ -13415,10 +13415,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C448" t="n">
-        <v>5</v>
-      </c>
-      <c r="D448" t="n">
+      <c r="C448" t="b">
+        <v>1</v>
+      </c>
+      <c r="D448" t="b">
         <v>1</v>
       </c>
       <c r="E448" t="n">
@@ -13444,10 +13444,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C449" t="n">
-        <v>4</v>
-      </c>
-      <c r="D449" t="n">
+      <c r="C449" t="b">
+        <v>1</v>
+      </c>
+      <c r="D449" t="b">
         <v>0</v>
       </c>
       <c r="E449" t="n">
@@ -13473,10 +13473,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C450" t="n">
-        <v>14</v>
-      </c>
-      <c r="D450" t="n">
+      <c r="C450" t="b">
+        <v>1</v>
+      </c>
+      <c r="D450" t="b">
         <v>1</v>
       </c>
       <c r="E450" t="n">
@@ -13502,10 +13502,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C451" t="n">
-        <v>6</v>
-      </c>
-      <c r="D451" t="n">
+      <c r="C451" t="b">
+        <v>1</v>
+      </c>
+      <c r="D451" t="b">
         <v>0</v>
       </c>
       <c r="E451" t="n">
@@ -13531,10 +13531,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C452" t="n">
-        <v>4</v>
-      </c>
-      <c r="D452" t="n">
+      <c r="C452" t="b">
+        <v>1</v>
+      </c>
+      <c r="D452" t="b">
         <v>1</v>
       </c>
       <c r="E452" t="n">
@@ -13560,10 +13560,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C453" t="n">
-        <v>0</v>
-      </c>
-      <c r="D453" t="n">
+      <c r="C453" t="b">
+        <v>0</v>
+      </c>
+      <c r="D453" t="b">
         <v>0</v>
       </c>
       <c r="E453" t="n">
@@ -13589,10 +13589,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C454" t="n">
-        <v>7</v>
-      </c>
-      <c r="D454" t="n">
+      <c r="C454" t="b">
+        <v>1</v>
+      </c>
+      <c r="D454" t="b">
         <v>0</v>
       </c>
       <c r="E454" t="n">
@@ -13618,10 +13618,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C455" t="n">
-        <v>9</v>
-      </c>
-      <c r="D455" t="n">
+      <c r="C455" t="b">
+        <v>1</v>
+      </c>
+      <c r="D455" t="b">
         <v>0</v>
       </c>
       <c r="E455" t="n">
@@ -13647,10 +13647,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C456" t="n">
-        <v>0</v>
-      </c>
-      <c r="D456" t="n">
+      <c r="C456" t="b">
+        <v>0</v>
+      </c>
+      <c r="D456" t="b">
         <v>0</v>
       </c>
       <c r="E456" t="n">
@@ -13676,10 +13676,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C457" t="n">
-        <v>15</v>
-      </c>
-      <c r="D457" t="n">
+      <c r="C457" t="b">
+        <v>1</v>
+      </c>
+      <c r="D457" t="b">
         <v>0</v>
       </c>
       <c r="E457" t="n">
@@ -13705,10 +13705,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C458" t="n">
-        <v>1</v>
-      </c>
-      <c r="D458" t="n">
+      <c r="C458" t="b">
+        <v>1</v>
+      </c>
+      <c r="D458" t="b">
         <v>1</v>
       </c>
       <c r="E458" t="n">
@@ -13734,10 +13734,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C459" t="n">
-        <v>1</v>
-      </c>
-      <c r="D459" t="n">
+      <c r="C459" t="b">
+        <v>1</v>
+      </c>
+      <c r="D459" t="b">
         <v>0</v>
       </c>
       <c r="E459" t="n">
@@ -13763,10 +13763,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C460" t="n">
-        <v>4</v>
-      </c>
-      <c r="D460" t="n">
+      <c r="C460" t="b">
+        <v>1</v>
+      </c>
+      <c r="D460" t="b">
         <v>0</v>
       </c>
       <c r="E460" t="n">
@@ -13792,10 +13792,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C461" t="n">
-        <v>17</v>
-      </c>
-      <c r="D461" t="n">
+      <c r="C461" t="b">
+        <v>1</v>
+      </c>
+      <c r="D461" t="b">
         <v>1</v>
       </c>
       <c r="E461" t="n">
@@ -13821,10 +13821,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C462" t="n">
-        <v>0</v>
-      </c>
-      <c r="D462" t="n">
+      <c r="C462" t="b">
+        <v>0</v>
+      </c>
+      <c r="D462" t="b">
         <v>0</v>
       </c>
       <c r="E462" t="n">
@@ -13850,10 +13850,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C463" t="n">
-        <v>0</v>
-      </c>
-      <c r="D463" t="n">
+      <c r="C463" t="b">
+        <v>0</v>
+      </c>
+      <c r="D463" t="b">
         <v>0</v>
       </c>
       <c r="E463" t="n">
@@ -13879,10 +13879,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C464" t="n">
-        <v>17</v>
-      </c>
-      <c r="D464" t="n">
+      <c r="C464" t="b">
+        <v>1</v>
+      </c>
+      <c r="D464" t="b">
         <v>1</v>
       </c>
       <c r="E464" t="n">
@@ -13908,10 +13908,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C465" t="n">
-        <v>9</v>
-      </c>
-      <c r="D465" t="n">
+      <c r="C465" t="b">
+        <v>1</v>
+      </c>
+      <c r="D465" t="b">
         <v>0</v>
       </c>
       <c r="E465" t="n">
@@ -13937,10 +13937,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C466" t="n">
-        <v>11</v>
-      </c>
-      <c r="D466" t="n">
+      <c r="C466" t="b">
+        <v>1</v>
+      </c>
+      <c r="D466" t="b">
         <v>0</v>
       </c>
       <c r="E466" t="n">
@@ -13966,10 +13966,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C467" t="n">
-        <v>9</v>
-      </c>
-      <c r="D467" t="n">
+      <c r="C467" t="b">
+        <v>1</v>
+      </c>
+      <c r="D467" t="b">
         <v>0</v>
       </c>
       <c r="E467" t="n">
@@ -13995,10 +13995,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C468" t="n">
-        <v>0</v>
-      </c>
-      <c r="D468" t="n">
+      <c r="C468" t="b">
+        <v>0</v>
+      </c>
+      <c r="D468" t="b">
         <v>0</v>
       </c>
       <c r="E468" t="n">
@@ -14024,10 +14024,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C469" t="n">
-        <v>3</v>
-      </c>
-      <c r="D469" t="n">
+      <c r="C469" t="b">
+        <v>1</v>
+      </c>
+      <c r="D469" t="b">
         <v>0</v>
       </c>
       <c r="E469" t="n">
@@ -14053,10 +14053,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C470" t="n">
-        <v>21</v>
-      </c>
-      <c r="D470" t="n">
+      <c r="C470" t="b">
+        <v>1</v>
+      </c>
+      <c r="D470" t="b">
         <v>0</v>
       </c>
       <c r="E470" t="n">
@@ -14082,10 +14082,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C471" t="n">
-        <v>10</v>
-      </c>
-      <c r="D471" t="n">
+      <c r="C471" t="b">
+        <v>1</v>
+      </c>
+      <c r="D471" t="b">
         <v>0</v>
       </c>
       <c r="E471" t="n">
@@ -14111,10 +14111,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C472" t="n">
-        <v>5</v>
-      </c>
-      <c r="D472" t="n">
+      <c r="C472" t="b">
+        <v>1</v>
+      </c>
+      <c r="D472" t="b">
         <v>0</v>
       </c>
       <c r="E472" t="n">
@@ -14140,10 +14140,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C473" t="n">
-        <v>3</v>
-      </c>
-      <c r="D473" t="n">
+      <c r="C473" t="b">
+        <v>1</v>
+      </c>
+      <c r="D473" t="b">
         <v>0</v>
       </c>
       <c r="E473" t="n">
@@ -14169,10 +14169,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C474" t="n">
-        <v>21</v>
-      </c>
-      <c r="D474" t="n">
+      <c r="C474" t="b">
+        <v>1</v>
+      </c>
+      <c r="D474" t="b">
         <v>1</v>
       </c>
       <c r="E474" t="n">
@@ -14198,10 +14198,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C475" t="n">
-        <v>20</v>
-      </c>
-      <c r="D475" t="n">
+      <c r="C475" t="b">
+        <v>1</v>
+      </c>
+      <c r="D475" t="b">
         <v>0</v>
       </c>
       <c r="E475" t="n">
@@ -14227,10 +14227,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C476" t="n">
-        <v>8</v>
-      </c>
-      <c r="D476" t="n">
+      <c r="C476" t="b">
+        <v>1</v>
+      </c>
+      <c r="D476" t="b">
         <v>0</v>
       </c>
       <c r="E476" t="n">
@@ -14256,10 +14256,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C477" t="n">
-        <v>2</v>
-      </c>
-      <c r="D477" t="n">
+      <c r="C477" t="b">
+        <v>1</v>
+      </c>
+      <c r="D477" t="b">
         <v>1</v>
       </c>
       <c r="E477" t="n">
@@ -14285,10 +14285,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C478" t="n">
-        <v>5</v>
-      </c>
-      <c r="D478" t="n">
+      <c r="C478" t="b">
+        <v>1</v>
+      </c>
+      <c r="D478" t="b">
         <v>0</v>
       </c>
       <c r="E478" t="n">
@@ -14314,10 +14314,10 @@
           <t>timing</t>
         </is>
       </c>
-      <c r="C479" t="n">
-        <v>6</v>
-      </c>
-      <c r="D479" t="n">
+      <c r="C479" t="b">
+        <v>1</v>
+      </c>
+      <c r="D479" t="b">
         <v>1</v>
       </c>
       <c r="E479" t="n">
